--- a/amazon_co-ecommerce_sample(7).xlsx
+++ b/amazon_co-ecommerce_sample(7).xlsx
@@ -6402,8 +6402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F7098"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C541" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="F551" sqref="F551"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="F990" sqref="F990"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -8955,6 +8955,9 @@
       <c r="D130">
         <v>11.04</v>
       </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
       <c r="F130">
         <v>5</v>
       </c>
@@ -10330,6 +10333,9 @@
       <c r="D201">
         <v>15.84</v>
       </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
       <c r="F201">
         <v>4.4000000000000004</v>
       </c>
@@ -10347,6 +10353,9 @@
       <c r="D202">
         <v>7.29</v>
       </c>
+      <c r="E202">
+        <v>0</v>
+      </c>
       <c r="F202">
         <v>5</v>
       </c>
@@ -10364,6 +10373,9 @@
       <c r="D203">
         <v>14.6</v>
       </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
       <c r="F203">
         <v>4.5</v>
       </c>
@@ -10381,6 +10393,9 @@
       <c r="D204">
         <v>59.9</v>
       </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
       <c r="F204">
         <v>5</v>
       </c>
@@ -10398,6 +10413,9 @@
       <c r="D205">
         <v>6.95</v>
       </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
       <c r="F205">
         <v>5</v>
       </c>
@@ -10415,6 +10433,9 @@
       <c r="D206">
         <v>59.99</v>
       </c>
+      <c r="E206">
+        <v>0</v>
+      </c>
       <c r="F206">
         <v>5</v>
       </c>
@@ -10432,6 +10453,9 @@
       <c r="D207">
         <v>5.99</v>
       </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
       <c r="F207">
         <v>5</v>
       </c>
@@ -10449,6 +10473,9 @@
       <c r="D208">
         <v>3.5</v>
       </c>
+      <c r="E208">
+        <v>0</v>
+      </c>
       <c r="F208">
         <v>4.5</v>
       </c>
@@ -10463,6 +10490,9 @@
       <c r="C209" t="s">
         <v>414</v>
       </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
       <c r="F209">
         <v>5</v>
       </c>
@@ -10480,6 +10510,9 @@
       <c r="D210">
         <v>2</v>
       </c>
+      <c r="E210">
+        <v>0</v>
+      </c>
       <c r="F210">
         <v>4.5</v>
       </c>
@@ -10497,6 +10530,9 @@
       <c r="D211">
         <v>4.99</v>
       </c>
+      <c r="E211">
+        <v>0</v>
+      </c>
       <c r="F211">
         <v>5</v>
       </c>
@@ -10514,6 +10550,9 @@
       <c r="D212">
         <v>17.989999999999998</v>
       </c>
+      <c r="E212">
+        <v>0</v>
+      </c>
       <c r="F212">
         <v>4</v>
       </c>
@@ -10531,6 +10570,9 @@
       <c r="D213">
         <v>8</v>
       </c>
+      <c r="E213">
+        <v>0</v>
+      </c>
       <c r="F213">
         <v>4</v>
       </c>
@@ -10548,6 +10590,9 @@
       <c r="D214">
         <v>7.94</v>
       </c>
+      <c r="E214">
+        <v>0</v>
+      </c>
       <c r="F214">
         <v>4.5999999999999996</v>
       </c>
@@ -10565,6 +10610,9 @@
       <c r="D215">
         <v>12.44</v>
       </c>
+      <c r="E215">
+        <v>0</v>
+      </c>
       <c r="F215">
         <v>5</v>
       </c>
@@ -10582,6 +10630,9 @@
       <c r="D216">
         <v>5.5</v>
       </c>
+      <c r="E216">
+        <v>0</v>
+      </c>
       <c r="F216">
         <v>5</v>
       </c>
@@ -10599,6 +10650,9 @@
       <c r="D217">
         <v>0.85</v>
       </c>
+      <c r="E217">
+        <v>0</v>
+      </c>
       <c r="F217">
         <v>4</v>
       </c>
@@ -10613,6 +10667,9 @@
       <c r="C218" t="s">
         <v>414</v>
       </c>
+      <c r="E218">
+        <v>0</v>
+      </c>
       <c r="F218">
         <v>5</v>
       </c>
@@ -14162,6 +14219,9 @@
       <c r="D401">
         <v>7.38</v>
       </c>
+      <c r="E401">
+        <v>0</v>
+      </c>
       <c r="F401">
         <v>4.4000000000000004</v>
       </c>
@@ -14179,6 +14239,9 @@
       <c r="D402">
         <v>2.94</v>
       </c>
+      <c r="E402">
+        <v>0</v>
+      </c>
       <c r="F402">
         <v>4.5</v>
       </c>
@@ -14196,6 +14259,9 @@
       <c r="D403">
         <v>8.56</v>
       </c>
+      <c r="E403">
+        <v>0</v>
+      </c>
       <c r="F403">
         <v>5</v>
       </c>
@@ -14213,6 +14279,9 @@
       <c r="D404">
         <v>4.8099999999999996</v>
       </c>
+      <c r="E404">
+        <v>0</v>
+      </c>
       <c r="F404">
         <v>4.5999999999999996</v>
       </c>
@@ -14230,6 +14299,9 @@
       <c r="D405">
         <v>3.99</v>
       </c>
+      <c r="E405">
+        <v>0</v>
+      </c>
       <c r="F405">
         <v>4.7</v>
       </c>
@@ -14244,6 +14316,9 @@
       <c r="C406" t="s">
         <v>1700</v>
       </c>
+      <c r="E406">
+        <v>0</v>
+      </c>
       <c r="F406">
         <v>4.5</v>
       </c>
@@ -14261,6 +14336,9 @@
       <c r="D407">
         <v>16.59</v>
       </c>
+      <c r="E407">
+        <v>0</v>
+      </c>
       <c r="F407">
         <v>5</v>
       </c>
@@ -18020,6 +18098,9 @@
       <c r="D599">
         <v>10.95</v>
       </c>
+      <c r="E599">
+        <v>0</v>
+      </c>
       <c r="F599">
         <v>4.3</v>
       </c>
@@ -18034,6 +18115,9 @@
       <c r="C600" t="s">
         <v>2016</v>
       </c>
+      <c r="E600">
+        <v>0</v>
+      </c>
       <c r="F600">
         <v>5</v>
       </c>
@@ -18051,6 +18135,9 @@
       <c r="D601">
         <v>7.99</v>
       </c>
+      <c r="E601">
+        <v>0</v>
+      </c>
       <c r="F601">
         <v>4.5</v>
       </c>
@@ -18068,6 +18155,9 @@
       <c r="D602">
         <v>5.21</v>
       </c>
+      <c r="E602">
+        <v>0</v>
+      </c>
       <c r="F602">
         <v>5</v>
       </c>
@@ -18553,6 +18643,9 @@
       <c r="D627">
         <v>29.98</v>
       </c>
+      <c r="E627">
+        <v>0</v>
+      </c>
       <c r="F627">
         <v>4.5999999999999996</v>
       </c>
@@ -25829,6 +25922,9 @@
       <c r="D998">
         <v>2.99</v>
       </c>
+      <c r="E998">
+        <v>0</v>
+      </c>
       <c r="F998">
         <v>4.8</v>
       </c>
@@ -25843,6 +25939,9 @@
       <c r="C999" t="s">
         <v>34</v>
       </c>
+      <c r="E999">
+        <v>0</v>
+      </c>
       <c r="F999">
         <v>5</v>
       </c>
@@ -25856,6 +25955,9 @@
       </c>
       <c r="C1000" t="s">
         <v>6</v>
+      </c>
+      <c r="E1000">
+        <v>0</v>
       </c>
       <c r="F1000">
         <v>4.5999999999999996</v>

--- a/amazon_co-ecommerce_sample(7).xlsx
+++ b/amazon_co-ecommerce_sample(7).xlsx
@@ -6403,7 +6403,7 @@
   <dimension ref="A1:F7098"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="F990" sqref="F990"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -6641,7 +6641,7 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D12">
         <v>27.49</v>

--- a/amazon_co-ecommerce_sample(7).xlsx
+++ b/amazon_co-ecommerce_sample(7).xlsx
@@ -6403,7 +6403,7 @@
   <dimension ref="A1:F7098"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -6661,7 +6661,7 @@
         <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="D13">
         <v>273.60000000000002</v>

--- a/amazon_co-ecommerce_sample(7).xlsx
+++ b/amazon_co-ecommerce_sample(7).xlsx
@@ -6402,8 +6402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F7098"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -6661,7 +6661,7 @@
         <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D13">
         <v>273.60000000000002</v>
@@ -6681,7 +6681,7 @@
         <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D14">
         <v>9.6</v>
